--- a/teaching/traditional_assets/database/data/guernsey/guernsey_shipbuilding_marine.xlsx
+++ b/teaching/traditional_assets/database/data/guernsey/guernsey_shipbuilding_marine.xlsx
@@ -590,8 +590,23 @@
           <t>Shipbuilding &amp; Marine</t>
         </is>
       </c>
+      <c r="G2">
+        <v>-22.70742358078603</v>
+      </c>
+      <c r="H2">
+        <v>-22.70742358078603</v>
+      </c>
+      <c r="I2">
+        <v>-23.66812227074236</v>
+      </c>
+      <c r="J2">
+        <v>-23.66812227074236</v>
+      </c>
       <c r="K2">
-        <v>-4.62</v>
+        <v>-6.83</v>
+      </c>
+      <c r="L2">
+        <v>-29.82532751091703</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>9.369999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="V2">
-        <v>0.8757009345794392</v>
+        <v>1.655231560891938</v>
       </c>
       <c r="W2">
-        <v>-0.03979328165374677</v>
+        <v>-0.04665300546448087</v>
       </c>
       <c r="X2">
-        <v>0.2976270461012109</v>
+        <v>0.3908048681382948</v>
       </c>
       <c r="Y2">
-        <v>-0.3374203277549577</v>
+        <v>-0.4374578736027757</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.001267083494715874</v>
       </c>
       <c r="AA2">
-        <v>-0.03313979460503024</v>
+        <v>-0.02998948708017484</v>
       </c>
       <c r="AB2">
-        <v>0.09380220870907711</v>
+        <v>0.06405757947912295</v>
       </c>
       <c r="AC2">
-        <v>-0.1269420033141073</v>
+        <v>-0.0940470665592978</v>
       </c>
       <c r="AD2">
-        <v>43.7</v>
+        <v>55.9</v>
       </c>
       <c r="AE2">
-        <v>7.674719004506613</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>51.37471900450662</v>
+        <v>55.9</v>
       </c>
       <c r="AG2">
-        <v>42.00471900450662</v>
+        <v>46.25</v>
       </c>
       <c r="AH2">
-        <v>0.8276270892305903</v>
+        <v>0.9055564555321561</v>
       </c>
       <c r="AI2">
-        <v>0.2597638326227932</v>
+        <v>0.3029810298102981</v>
       </c>
       <c r="AJ2">
-        <v>0.79698212603913</v>
+        <v>0.8880568356374808</v>
       </c>
       <c r="AK2">
-        <v>0.2229493997095787</v>
+        <v>0.2645124392336288</v>
       </c>
       <c r="AL2">
-        <v>0.159</v>
+        <v>1.49</v>
       </c>
       <c r="AM2">
-        <v>0.145</v>
+        <v>1.424</v>
       </c>
       <c r="AN2">
-        <v>-11.65022660623834</v>
+        <v>-13.63414634146342</v>
       </c>
       <c r="AO2">
-        <v>-27.86163522012578</v>
+        <v>-3.63758389261745</v>
       </c>
       <c r="AP2">
-        <v>-11.19827219528302</v>
+        <v>-11.28048780487805</v>
       </c>
       <c r="AQ2">
-        <v>-30.55172413793104</v>
+        <v>-3.806179775280899</v>
       </c>
     </row>
     <row r="3">
@@ -700,8 +715,23 @@
           <t>Shipbuilding &amp; Marine</t>
         </is>
       </c>
+      <c r="G3">
+        <v>-22.70742358078603</v>
+      </c>
+      <c r="H3">
+        <v>-22.70742358078603</v>
+      </c>
+      <c r="I3">
+        <v>-23.66812227074236</v>
+      </c>
+      <c r="J3">
+        <v>-23.66812227074236</v>
+      </c>
       <c r="K3">
-        <v>-4.62</v>
+        <v>-6.83</v>
+      </c>
+      <c r="L3">
+        <v>-29.82532751091703</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -725,73 +755,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>9.369999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="V3">
-        <v>0.8757009345794392</v>
+        <v>1.655231560891938</v>
       </c>
       <c r="W3">
-        <v>-0.03979328165374677</v>
+        <v>-0.04665300546448087</v>
       </c>
       <c r="X3">
-        <v>0.2976270461012109</v>
+        <v>0.3908048681382948</v>
       </c>
       <c r="Y3">
-        <v>-0.3374203277549577</v>
+        <v>-0.4374578736027757</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.001267083494715874</v>
       </c>
       <c r="AA3">
-        <v>-0.03313979460503024</v>
+        <v>-0.02998948708017484</v>
       </c>
       <c r="AB3">
-        <v>0.09380220870907711</v>
+        <v>0.06405757947912295</v>
       </c>
       <c r="AC3">
-        <v>-0.1269420033141073</v>
+        <v>-0.0940470665592978</v>
       </c>
       <c r="AD3">
-        <v>43.7</v>
+        <v>55.9</v>
       </c>
       <c r="AE3">
-        <v>7.674719004506613</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>51.37471900450662</v>
+        <v>55.9</v>
       </c>
       <c r="AG3">
-        <v>42.00471900450662</v>
+        <v>46.25</v>
       </c>
       <c r="AH3">
-        <v>0.8276270892305903</v>
+        <v>0.9055564555321561</v>
       </c>
       <c r="AI3">
-        <v>0.2597638326227932</v>
+        <v>0.3029810298102981</v>
       </c>
       <c r="AJ3">
-        <v>0.79698212603913</v>
+        <v>0.8880568356374808</v>
       </c>
       <c r="AK3">
-        <v>0.2229493997095787</v>
+        <v>0.2645124392336288</v>
       </c>
       <c r="AL3">
-        <v>0.159</v>
+        <v>1.49</v>
       </c>
       <c r="AM3">
-        <v>0.145</v>
+        <v>1.424</v>
       </c>
       <c r="AN3">
-        <v>-11.65022660623834</v>
+        <v>-13.63414634146342</v>
       </c>
       <c r="AO3">
-        <v>-27.86163522012578</v>
+        <v>-3.63758389261745</v>
       </c>
       <c r="AP3">
-        <v>-11.19827219528302</v>
+        <v>-11.28048780487805</v>
       </c>
       <c r="AQ3">
-        <v>-30.55172413793104</v>
+        <v>-3.806179775280899</v>
       </c>
     </row>
   </sheetData>
